--- a/medicine/Sexualité et sexologie/La_Chambre_noire_(film,_1983)/La_Chambre_noire_(film,_1983).xlsx
+++ b/medicine/Sexualité et sexologie/La_Chambre_noire_(film,_1983)/La_Chambre_noire_(film,_1983).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Chambre noire (暗室, Anshitsu?) est un film érotique japonais réalisé par Kirio Urayama, sorti en 1983.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'occasion de la rédaction de son nouvel ouvrage, "Un certain passé", le romancier Shuichi Nakata se remémore un événement intervenu plus de dix ans auparavant.
 Il était marié à une superbe femme, Keiko. Apprenti écrivain et obscur journaliste, il soupçonnait notamment son ami Yamanoi d'avoir couché avec elle. Contrainte par son époux, Keiko avorta plusieurs fois. Jusqu'au jour où elle décéda dans un accident de voiture qui a tout l'air d'un suicide. Dévasté et se sentant responsable de sa mort, libéré de sa jalousie primitive, Nakata noya son chagrin dans le sexe sans bonheur. Pour fuir tout sentiment de culpabilité, Nakata renonce pour toujours au mariage et à la paternité. Devenu libre, il se lance dans une quête obsessionnelle de sexe et raconte ses aventures sulfureuses dans un essai philosophique, "La chambre noire". De femme en femme, Nakata semble être insatisfait et incapable d'oublier son épouse défunte...
@@ -543,10 +557,12 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : 暗室 (Anshitsu?)
-Titre français : La Chambre noire[1]
+Titre français : La Chambre noire
 Réalisation : Kirio Urayama
 Scénario :  Toshirō Ishidō
 Montage : Osamu Inoue
@@ -559,7 +575,7 @@
 Genre : érotique, roman porno
 Durée : 122 minutes
 Dates de sortie :
-Japon : 17 septembre 1983[2]
+Japon : 17 septembre 1983
 France : 21 septembre 2010 (DVD)</t>
         </is>
       </c>
@@ -588,7 +604,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kōji Shimizu : Nakata
 Rie Kimura : Natsue
